--- a/Mouse_workbooks/CH_150302_D.xlsx
+++ b/Mouse_workbooks/CH_150302_D.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Mouse ID</t>
   </si>
@@ -135,55 +135,25 @@
     <t>4% PFA</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
     <t>Burr Hole Injection</t>
   </si>
   <si>
-    <t>CH_150202_C</t>
-  </si>
-  <si>
-    <t>PV-cre  x  tdTomato</t>
-  </si>
-  <si>
-    <t>Both ears tagged.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Injected rAAV1.hSyn.oChief.Citrine into V1 (Addgene 50974). Roughly 300 nl total injection, targeted -450 um from pia and 2.56 mm left of lambda. Seemed like a good injection. </t>
   </si>
   <si>
-    <t>Vclamp trains, [10,20,40 Hz] interleaved. FS open. LED set to 4 volts. Looks like lots of spontaneous inhibition. Vhold = +17mV.</t>
-  </si>
-  <si>
-    <t>2015_03_05_0000</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>2015_03_05_0001</t>
-  </si>
-  <si>
-    <t>2015_03_05_0002</t>
-  </si>
-  <si>
-    <t>out</t>
-  </si>
-  <si>
-    <t>Vclamp trains, [10,20,40 Hz] interleaved. FS open. LED set to 4 volts. Looks like lots of spontaneous inhibition. Vhold = -72mV.</t>
-  </si>
-  <si>
-    <t>Cs-Gluconate</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Trying out new camera and also tyring to evoke oChIEF responses with whole cell recordings.</t>
-  </si>
-  <si>
-    <t>Injected hSyn.oChIEF.citrine (greg's construct) into V1. Whole cell recordings. The virus spread very far, so none of these recordings should be assumed to come exclusively from a HOA.</t>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>C57</t>
+  </si>
+  <si>
+    <t>Injected hSyn.oChIEF.citrine (greg's construct) into V1.</t>
+  </si>
+  <si>
+    <t>Both ears tagged twice</t>
+  </si>
+  <si>
+    <t>CH_150302_D</t>
   </si>
 </sst>
 </file>
@@ -1316,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="38.1" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1332,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1340,7 +1310,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1348,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="33">
-        <v>42006</v>
+        <v>42040</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1364,7 +1334,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="147.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1372,7 +1342,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38.1" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -1398,10 +1368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:I4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1423,9 +1393,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="52"/>
-      <c r="C1" s="57" t="s">
-        <v>48</v>
-      </c>
+      <c r="C1" s="57"/>
       <c r="D1" s="58"/>
       <c r="E1" s="58"/>
       <c r="F1" s="58"/>
@@ -1433,18 +1401,14 @@
       <c r="H1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="22">
-        <v>305</v>
-      </c>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="54"/>
-      <c r="C2" s="37" t="s">
-        <v>49</v>
-      </c>
+      <c r="C2" s="37"/>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
       <c r="F2" s="38"/>
@@ -1452,18 +1416,14 @@
       <c r="H2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="24">
-        <v>312</v>
-      </c>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="44">
-        <v>34</v>
-      </c>
+      <c r="C3" s="44"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
       <c r="F3" s="37"/>
@@ -1476,9 +1436,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="56"/>
-      <c r="C4" s="47" t="s">
-        <v>50</v>
-      </c>
+      <c r="C4" s="47"/>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
@@ -1522,96 +1480,46 @@
       <c r="H6" s="41"/>
       <c r="I6" s="42"/>
     </row>
-    <row r="7" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="5">
-        <v>5</v>
-      </c>
-      <c r="E7" s="36">
-        <v>34</v>
-      </c>
-      <c r="F7" s="23">
-        <v>17</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>41</v>
-      </c>
+    <row r="7" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39"/>
     </row>
-    <row r="8" spans="1:9" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="5">
-        <v>5</v>
-      </c>
-      <c r="E8" s="36">
-        <v>34</v>
-      </c>
-      <c r="F8" s="23">
-        <v>-72</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>47</v>
-      </c>
+    <row r="8" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="38"/>
       <c r="I8" s="39"/>
     </row>
-    <row r="9" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="5">
-        <v>5</v>
-      </c>
-      <c r="E9" s="36">
-        <v>34</v>
-      </c>
-      <c r="F9" s="23">
-        <v>-72</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>47</v>
-      </c>
+    <row r="9" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="37"/>
       <c r="H9" s="38"/>
       <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="5">
-        <v>5</v>
-      </c>
-      <c r="E10" s="36">
-        <v>34</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>46</v>
-      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="37"/>
       <c r="H10" s="38"/>
       <c r="I10" s="39"/>
@@ -2573,47 +2481,11 @@
       <c r="H97" s="38"/>
       <c r="I97" s="39"/>
     </row>
-    <row r="98" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="39"/>
-    </row>
-    <row r="99" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="39"/>
-    </row>
-    <row r="100" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="39"/>
-    </row>
-    <row r="101" spans="1:9" ht="39" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:9" ht="39" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="104">
+  <mergeCells count="101">
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
@@ -2623,96 +2495,96 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G2"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="G29:I29"/>
     <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
     <mergeCell ref="G38:I38"/>
     <mergeCell ref="G39:I39"/>
     <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="G49:I49"/>
     <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
     <mergeCell ref="G58:I58"/>
     <mergeCell ref="G59:I59"/>
     <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="G77:I77"/>
     <mergeCell ref="G68:I68"/>
     <mergeCell ref="G69:I69"/>
     <mergeCell ref="G70:I70"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="G87:I87"/>
     <mergeCell ref="G78:I78"/>
     <mergeCell ref="G79:I79"/>
     <mergeCell ref="G80:I80"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
     <mergeCell ref="G88:I88"/>
     <mergeCell ref="G89:I89"/>
     <mergeCell ref="G90:I90"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="G100:I100"/>
     <mergeCell ref="G91:I91"/>
     <mergeCell ref="G92:I92"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="G95:I95"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.47222222222222221" right="0.56944444444444442" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2873,7 +2745,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="81">
-        <v>42037</v>
+        <v>42065</v>
       </c>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -2886,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="63"/>
       <c r="D3" s="63"/>
@@ -2899,7 +2771,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>

--- a/Mouse_workbooks/CH_150302_D.xlsx
+++ b/Mouse_workbooks/CH_150302_D.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="135" windowWidth="25605" windowHeight="16065" tabRatio="738"/>
+    <workbookView xWindow="1185" yWindow="135" windowWidth="25605" windowHeight="16065" tabRatio="738" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Mouse ID</t>
   </si>
@@ -147,13 +147,55 @@
     <t>C57</t>
   </si>
   <si>
-    <t>Injected hSyn.oChIEF.citrine (greg's construct) into V1.</t>
-  </si>
-  <si>
     <t>Both ears tagged twice</t>
   </si>
   <si>
     <t>CH_150302_D</t>
+  </si>
+  <si>
+    <t>3M NaCl</t>
+  </si>
+  <si>
+    <t>Normal, many files with drugs</t>
+  </si>
+  <si>
+    <t>Trying to record LFPs from HVAs. The tissue is a bit finicky, but we'll see how the data look. Fiber volley experiments from one HVA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LFP trains 20 Hz, 4 different amplitudes. 500us pulse width. FS open, LED targets HS2 location, which is slightly more dorsal than the HS1 location, but the two etrodes are very close together. Gains set to 2000, Bessell set to 4kHz, AC=1Hz. With 10uM NBQX, 30uM AP5. </t>
+  </si>
+  <si>
+    <t>LFP trains 20 Hz, 4 different amplitudes. 500us pulse width. FS open, LED targets HS2 location, which is slightly more dorsal than the HS1 location, but the two etrodes are very close together. Gains set to 2000, Bessell set to 4kHz, AC=1Hz. Normal ACSF. Something happens to HS2 at the end of the recording... Looks like some network activity...</t>
+  </si>
+  <si>
+    <t>2015_04_24_0000</t>
+  </si>
+  <si>
+    <t>2015_04_24_0001</t>
+  </si>
+  <si>
+    <t>2015_04_24_0002</t>
+  </si>
+  <si>
+    <t>2015_04_24_0003</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>LFP trains 20 Hz, 4 different amplitudes. 500us pulse width. FS open, LED targets HS2 location, which is slightly more dorsal than the HS1 location, but the two etrodes are very close together. Gains set to 2000, Bessell set to 4kHz, AC=1Hz. With 10uM NBQX, 30uM AP5, 150uM Cd2+.</t>
+  </si>
+  <si>
+    <t>LFP trains 20 Hz, 4 different amplitudes. 500us pulse width. FS open, LED targets HS2 location, which is slightly more dorsal than the HS1 location, but the two etrodes are very close together. Gains set to 2000, Bessell set to 4kHz, AC=1Hz. With 10uM NBQX, 30uM AP5, 150uM Cd2+, 1uM TTX.</t>
+  </si>
+  <si>
+    <t>The two electrode tips are basically in the same spot (within 20 uM). But the nominal stimulation location was HS2. Pia at (192 192). I think this is area AL.</t>
+  </si>
+  <si>
+    <t>Injected hSyn.oChIEF.citrine (greg's construct) into V1. Field recordings for fiber volley analysis. Interleaved LED pulse powers.</t>
   </si>
 </sst>
 </file>
@@ -692,7 +734,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -803,6 +845,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -811,15 +865,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -910,6 +955,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -921,21 +981,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1286,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="38.1" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1302,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1334,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="147.94999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1342,7 +1387,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="38.1" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -1371,7 +1416,7 @@
   <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G12" sqref="G12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1389,71 +1434,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
       <c r="H1" s="25" t="s">
         <v>30</v>
       </c>
       <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="24">
+        <v>313</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="45">
+        <v>34</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="1:9" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
     </row>
     <row r="5" spans="1:9" ht="26.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1474,66 +1529,132 @@
       <c r="F6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-    </row>
-    <row r="7" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
-    </row>
-    <row r="11" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+    </row>
+    <row r="7" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="36">
+        <v>34</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
+    </row>
+    <row r="8" spans="1:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6</v>
+      </c>
+      <c r="E8" s="36">
+        <v>34</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="1:9" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5">
+        <v>6</v>
+      </c>
+      <c r="E9" s="36">
+        <v>34</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6</v>
+      </c>
+      <c r="E10" s="36">
+        <v>34</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="39"/>
+      <c r="D11" s="5">
+        <v>6</v>
+      </c>
+      <c r="E11" s="36">
+        <v>34</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
     </row>
     <row r="12" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1542,9 +1663,9 @@
       <c r="D12" s="5"/>
       <c r="E12" s="36"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="39"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
     </row>
     <row r="13" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -1553,9 +1674,9 @@
       <c r="D13" s="5"/>
       <c r="E13" s="36"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1564,9 +1685,9 @@
       <c r="D14" s="5"/>
       <c r="E14" s="36"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="39"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
     </row>
     <row r="15" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -1575,9 +1696,9 @@
       <c r="D15" s="5"/>
       <c r="E15" s="36"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="39"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
     </row>
     <row r="16" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -1586,9 +1707,9 @@
       <c r="D16" s="5"/>
       <c r="E16" s="36"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="39"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
     </row>
     <row r="17" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -1597,9 +1718,9 @@
       <c r="D17" s="5"/>
       <c r="E17" s="36"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
     </row>
     <row r="18" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -1608,9 +1729,9 @@
       <c r="D18" s="5"/>
       <c r="E18" s="36"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="39"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
     </row>
     <row r="19" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1619,9 +1740,9 @@
       <c r="D19" s="5"/>
       <c r="E19" s="36"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -1630,9 +1751,9 @@
       <c r="D20" s="5"/>
       <c r="E20" s="36"/>
       <c r="F20" s="23"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="39"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
     </row>
     <row r="21" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -1641,9 +1762,9 @@
       <c r="D21" s="5"/>
       <c r="E21" s="36"/>
       <c r="F21" s="23"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="39"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
     </row>
     <row r="22" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1652,9 +1773,9 @@
       <c r="D22" s="5"/>
       <c r="E22" s="36"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="39"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
     </row>
     <row r="23" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -1663,9 +1784,9 @@
       <c r="D23" s="5"/>
       <c r="E23" s="36"/>
       <c r="F23" s="23"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
     </row>
     <row r="24" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -1674,9 +1795,9 @@
       <c r="D24" s="5"/>
       <c r="E24" s="36"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="39"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
     </row>
     <row r="25" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1685,9 +1806,9 @@
       <c r="D25" s="5"/>
       <c r="E25" s="36"/>
       <c r="F25" s="23"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
     </row>
     <row r="26" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1696,9 +1817,9 @@
       <c r="D26" s="5"/>
       <c r="E26" s="36"/>
       <c r="F26" s="23"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
     </row>
     <row r="27" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -1707,9 +1828,9 @@
       <c r="D27" s="5"/>
       <c r="E27" s="36"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
     </row>
     <row r="28" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1718,9 +1839,9 @@
       <c r="D28" s="5"/>
       <c r="E28" s="36"/>
       <c r="F28" s="23"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
     </row>
     <row r="29" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
@@ -1729,9 +1850,9 @@
       <c r="D29" s="5"/>
       <c r="E29" s="36"/>
       <c r="F29" s="23"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
     </row>
     <row r="30" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
@@ -1740,9 +1861,9 @@
       <c r="D30" s="5"/>
       <c r="E30" s="36"/>
       <c r="F30" s="23"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="39"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
     </row>
     <row r="31" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
@@ -1751,9 +1872,9 @@
       <c r="D31" s="5"/>
       <c r="E31" s="36"/>
       <c r="F31" s="23"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="39"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
     </row>
     <row r="32" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
@@ -1762,9 +1883,9 @@
       <c r="D32" s="5"/>
       <c r="E32" s="36"/>
       <c r="F32" s="23"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="39"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
     </row>
     <row r="33" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
@@ -1773,9 +1894,9 @@
       <c r="D33" s="5"/>
       <c r="E33" s="36"/>
       <c r="F33" s="23"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="39"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
     </row>
     <row r="34" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
@@ -1784,9 +1905,9 @@
       <c r="D34" s="5"/>
       <c r="E34" s="36"/>
       <c r="F34" s="23"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="39"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
     </row>
     <row r="35" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
@@ -1795,9 +1916,9 @@
       <c r="D35" s="5"/>
       <c r="E35" s="36"/>
       <c r="F35" s="23"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="39"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
     </row>
     <row r="36" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
@@ -1806,9 +1927,9 @@
       <c r="D36" s="5"/>
       <c r="E36" s="36"/>
       <c r="F36" s="23"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="39"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="43"/>
     </row>
     <row r="37" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
@@ -1817,9 +1938,9 @@
       <c r="D37" s="5"/>
       <c r="E37" s="36"/>
       <c r="F37" s="23"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="39"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
     </row>
     <row r="38" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
@@ -1828,9 +1949,9 @@
       <c r="D38" s="5"/>
       <c r="E38" s="36"/>
       <c r="F38" s="23"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="43"/>
     </row>
     <row r="39" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
@@ -1839,9 +1960,9 @@
       <c r="D39" s="5"/>
       <c r="E39" s="36"/>
       <c r="F39" s="23"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="39"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="43"/>
     </row>
     <row r="40" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
@@ -1850,9 +1971,9 @@
       <c r="D40" s="5"/>
       <c r="E40" s="36"/>
       <c r="F40" s="23"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="39"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="43"/>
     </row>
     <row r="41" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
@@ -1861,9 +1982,9 @@
       <c r="D41" s="5"/>
       <c r="E41" s="36"/>
       <c r="F41" s="23"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="39"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
     </row>
     <row r="42" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
@@ -1872,9 +1993,9 @@
       <c r="D42" s="5"/>
       <c r="E42" s="36"/>
       <c r="F42" s="23"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="39"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="43"/>
     </row>
     <row r="43" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
@@ -1883,9 +2004,9 @@
       <c r="D43" s="5"/>
       <c r="E43" s="36"/>
       <c r="F43" s="23"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="39"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="43"/>
     </row>
     <row r="44" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
@@ -1894,9 +2015,9 @@
       <c r="D44" s="5"/>
       <c r="E44" s="36"/>
       <c r="F44" s="23"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="39"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="43"/>
     </row>
     <row r="45" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
@@ -1905,9 +2026,9 @@
       <c r="D45" s="5"/>
       <c r="E45" s="36"/>
       <c r="F45" s="23"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="39"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="43"/>
     </row>
     <row r="46" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
@@ -1916,9 +2037,9 @@
       <c r="D46" s="5"/>
       <c r="E46" s="36"/>
       <c r="F46" s="23"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="39"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="43"/>
     </row>
     <row r="47" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
@@ -1927,9 +2048,9 @@
       <c r="D47" s="5"/>
       <c r="E47" s="36"/>
       <c r="F47" s="23"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="43"/>
     </row>
     <row r="48" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
@@ -1938,9 +2059,9 @@
       <c r="D48" s="5"/>
       <c r="E48" s="36"/>
       <c r="F48" s="23"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="39"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="43"/>
     </row>
     <row r="49" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
@@ -1949,9 +2070,9 @@
       <c r="D49" s="5"/>
       <c r="E49" s="36"/>
       <c r="F49" s="23"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="39"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="43"/>
     </row>
     <row r="50" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
@@ -1960,9 +2081,9 @@
       <c r="D50" s="5"/>
       <c r="E50" s="36"/>
       <c r="F50" s="23"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="39"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="43"/>
     </row>
     <row r="51" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
@@ -1971,9 +2092,9 @@
       <c r="D51" s="5"/>
       <c r="E51" s="36"/>
       <c r="F51" s="23"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="39"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="43"/>
     </row>
     <row r="52" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
@@ -1982,9 +2103,9 @@
       <c r="D52" s="5"/>
       <c r="E52" s="36"/>
       <c r="F52" s="23"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="39"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="43"/>
     </row>
     <row r="53" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
@@ -1993,9 +2114,9 @@
       <c r="D53" s="5"/>
       <c r="E53" s="36"/>
       <c r="F53" s="23"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="39"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="43"/>
     </row>
     <row r="54" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
@@ -2004,9 +2125,9 @@
       <c r="D54" s="5"/>
       <c r="E54" s="36"/>
       <c r="F54" s="23"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="39"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="43"/>
     </row>
     <row r="55" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
@@ -2015,9 +2136,9 @@
       <c r="D55" s="5"/>
       <c r="E55" s="36"/>
       <c r="F55" s="23"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="39"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="43"/>
     </row>
     <row r="56" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
@@ -2026,9 +2147,9 @@
       <c r="D56" s="5"/>
       <c r="E56" s="36"/>
       <c r="F56" s="23"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="39"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="43"/>
     </row>
     <row r="57" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
@@ -2037,9 +2158,9 @@
       <c r="D57" s="5"/>
       <c r="E57" s="36"/>
       <c r="F57" s="23"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="39"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="43"/>
     </row>
     <row r="58" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
@@ -2048,9 +2169,9 @@
       <c r="D58" s="5"/>
       <c r="E58" s="36"/>
       <c r="F58" s="23"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="39"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="43"/>
     </row>
     <row r="59" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
@@ -2059,9 +2180,9 @@
       <c r="D59" s="5"/>
       <c r="E59" s="36"/>
       <c r="F59" s="23"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="39"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="43"/>
     </row>
     <row r="60" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
@@ -2070,9 +2191,9 @@
       <c r="D60" s="5"/>
       <c r="E60" s="36"/>
       <c r="F60" s="23"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="39"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="43"/>
     </row>
     <row r="61" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
@@ -2081,9 +2202,9 @@
       <c r="D61" s="5"/>
       <c r="E61" s="36"/>
       <c r="F61" s="23"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="39"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="43"/>
     </row>
     <row r="62" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
@@ -2092,9 +2213,9 @@
       <c r="D62" s="5"/>
       <c r="E62" s="36"/>
       <c r="F62" s="23"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="39"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="43"/>
     </row>
     <row r="63" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
@@ -2103,9 +2224,9 @@
       <c r="D63" s="5"/>
       <c r="E63" s="36"/>
       <c r="F63" s="23"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="39"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="43"/>
     </row>
     <row r="64" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
@@ -2114,9 +2235,9 @@
       <c r="D64" s="5"/>
       <c r="E64" s="36"/>
       <c r="F64" s="23"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="39"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="43"/>
     </row>
     <row r="65" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
@@ -2125,9 +2246,9 @@
       <c r="D65" s="5"/>
       <c r="E65" s="36"/>
       <c r="F65" s="23"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="39"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="43"/>
     </row>
     <row r="66" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
@@ -2136,9 +2257,9 @@
       <c r="D66" s="5"/>
       <c r="E66" s="36"/>
       <c r="F66" s="23"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="39"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="43"/>
     </row>
     <row r="67" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
@@ -2147,9 +2268,9 @@
       <c r="D67" s="5"/>
       <c r="E67" s="36"/>
       <c r="F67" s="23"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="39"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="43"/>
     </row>
     <row r="68" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
@@ -2158,9 +2279,9 @@
       <c r="D68" s="5"/>
       <c r="E68" s="36"/>
       <c r="F68" s="23"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="39"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="43"/>
     </row>
     <row r="69" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
@@ -2169,9 +2290,9 @@
       <c r="D69" s="5"/>
       <c r="E69" s="36"/>
       <c r="F69" s="23"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="39"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="43"/>
     </row>
     <row r="70" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
@@ -2180,9 +2301,9 @@
       <c r="D70" s="5"/>
       <c r="E70" s="36"/>
       <c r="F70" s="23"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="39"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="43"/>
     </row>
     <row r="71" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -2191,9 +2312,9 @@
       <c r="D71" s="5"/>
       <c r="E71" s="36"/>
       <c r="F71" s="23"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="39"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="43"/>
     </row>
     <row r="72" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
@@ -2202,9 +2323,9 @@
       <c r="D72" s="5"/>
       <c r="E72" s="36"/>
       <c r="F72" s="23"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="39"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="43"/>
     </row>
     <row r="73" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
@@ -2213,9 +2334,9 @@
       <c r="D73" s="5"/>
       <c r="E73" s="36"/>
       <c r="F73" s="23"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="39"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="43"/>
     </row>
     <row r="74" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
@@ -2224,9 +2345,9 @@
       <c r="D74" s="5"/>
       <c r="E74" s="36"/>
       <c r="F74" s="23"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="39"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="43"/>
     </row>
     <row r="75" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
@@ -2235,9 +2356,9 @@
       <c r="D75" s="5"/>
       <c r="E75" s="36"/>
       <c r="F75" s="23"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="39"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="43"/>
     </row>
     <row r="76" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
@@ -2246,9 +2367,9 @@
       <c r="D76" s="5"/>
       <c r="E76" s="36"/>
       <c r="F76" s="23"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="39"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="43"/>
     </row>
     <row r="77" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
@@ -2257,9 +2378,9 @@
       <c r="D77" s="5"/>
       <c r="E77" s="36"/>
       <c r="F77" s="23"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="39"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="43"/>
     </row>
     <row r="78" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
@@ -2268,9 +2389,9 @@
       <c r="D78" s="5"/>
       <c r="E78" s="36"/>
       <c r="F78" s="23"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="39"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="43"/>
     </row>
     <row r="79" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
@@ -2279,9 +2400,9 @@
       <c r="D79" s="5"/>
       <c r="E79" s="36"/>
       <c r="F79" s="23"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="39"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="43"/>
     </row>
     <row r="80" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
@@ -2290,9 +2411,9 @@
       <c r="D80" s="5"/>
       <c r="E80" s="36"/>
       <c r="F80" s="23"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="39"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="43"/>
     </row>
     <row r="81" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
@@ -2301,9 +2422,9 @@
       <c r="D81" s="5"/>
       <c r="E81" s="36"/>
       <c r="F81" s="23"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="39"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="43"/>
     </row>
     <row r="82" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
@@ -2312,9 +2433,9 @@
       <c r="D82" s="5"/>
       <c r="E82" s="36"/>
       <c r="F82" s="23"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="39"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="43"/>
     </row>
     <row r="83" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
@@ -2323,9 +2444,9 @@
       <c r="D83" s="5"/>
       <c r="E83" s="36"/>
       <c r="F83" s="23"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="39"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="43"/>
     </row>
     <row r="84" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
@@ -2334,9 +2455,9 @@
       <c r="D84" s="5"/>
       <c r="E84" s="36"/>
       <c r="F84" s="23"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="39"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="43"/>
     </row>
     <row r="85" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
@@ -2345,9 +2466,9 @@
       <c r="D85" s="5"/>
       <c r="E85" s="36"/>
       <c r="F85" s="23"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="39"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="43"/>
     </row>
     <row r="86" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
@@ -2356,9 +2477,9 @@
       <c r="D86" s="5"/>
       <c r="E86" s="36"/>
       <c r="F86" s="23"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="39"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="43"/>
     </row>
     <row r="87" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
@@ -2367,9 +2488,9 @@
       <c r="D87" s="5"/>
       <c r="E87" s="36"/>
       <c r="F87" s="23"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="39"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="43"/>
     </row>
     <row r="88" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
@@ -2378,9 +2499,9 @@
       <c r="D88" s="5"/>
       <c r="E88" s="36"/>
       <c r="F88" s="23"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="39"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="43"/>
     </row>
     <row r="89" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
@@ -2389,9 +2510,9 @@
       <c r="D89" s="5"/>
       <c r="E89" s="36"/>
       <c r="F89" s="23"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="39"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="43"/>
     </row>
     <row r="90" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
@@ -2400,9 +2521,9 @@
       <c r="D90" s="5"/>
       <c r="E90" s="36"/>
       <c r="F90" s="23"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="39"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="43"/>
     </row>
     <row r="91" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
@@ -2411,9 +2532,9 @@
       <c r="D91" s="5"/>
       <c r="E91" s="36"/>
       <c r="F91" s="23"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="39"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="43"/>
     </row>
     <row r="92" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
@@ -2422,9 +2543,9 @@
       <c r="D92" s="5"/>
       <c r="E92" s="36"/>
       <c r="F92" s="23"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="39"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="43"/>
     </row>
     <row r="93" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
@@ -2433,9 +2554,9 @@
       <c r="D93" s="5"/>
       <c r="E93" s="36"/>
       <c r="F93" s="23"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="39"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="43"/>
     </row>
     <row r="94" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
@@ -2444,9 +2565,9 @@
       <c r="D94" s="5"/>
       <c r="E94" s="36"/>
       <c r="F94" s="23"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="39"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="43"/>
     </row>
     <row r="95" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
@@ -2455,9 +2576,9 @@
       <c r="D95" s="5"/>
       <c r="E95" s="36"/>
       <c r="F95" s="23"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="39"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="43"/>
     </row>
     <row r="96" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
@@ -2466,9 +2587,9 @@
       <c r="D96" s="5"/>
       <c r="E96" s="36"/>
       <c r="F96" s="23"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="39"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="43"/>
     </row>
     <row r="97" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
@@ -2477,13 +2598,103 @@
       <c r="D97" s="5"/>
       <c r="E97" s="36"/>
       <c r="F97" s="23"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="39"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="43"/>
     </row>
     <row r="98" spans="1:9" ht="39" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
     <mergeCell ref="A5:I5"/>
@@ -2495,96 +2706,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G2"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="G69:I69"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="G92:I92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.47222222222222221" right="0.56944444444444442" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2601,8 +2722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="36" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2617,79 +2738,85 @@
       <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:5" ht="135.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="B4" s="68">
+        <v>300</v>
+      </c>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
     </row>
     <row r="5" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
+      <c r="B6" s="64">
+        <v>2</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
     </row>
     <row r="7" spans="1:5" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="B7" s="68">
+        <v>6</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="70"/>
     </row>
     <row r="8" spans="1:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2730,198 +2857,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="81">
+      <c r="B2" s="74">
         <v>42065</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="65"/>
     </row>
     <row r="4" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
     </row>
     <row r="5" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
     </row>
     <row r="6" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
     </row>
     <row r="10" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
     </row>
     <row r="12" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="15" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
     </row>
     <row r="16" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="17" spans="1:7" ht="113.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
     </row>
     <row r="18" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="76"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="82"/>
     </row>
     <row r="19" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:7" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
